--- a/data-raw/excel-spreadsheets/table_index.xlsx
+++ b/data-raw/excel-spreadsheets/table_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4176B75-E748-4D2B-B523-165EDACA623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57DC905-2F0D-4279-824B-DD4A43515E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{97600937-3096-46D4-A200-AC41CD055E1E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97600937-3096-46D4-A200-AC41CD055E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="1 to 241" sheetId="1" r:id="rId1"/>
@@ -1586,9 +1586,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1626,7 +1626,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1732,7 +1732,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1874,7 +1874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1884,19 +1884,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569376E0-8FA5-43EA-A466-707E9AF7BBBF}">
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="98.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.04296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.2265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>87</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>91</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>93</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>94</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>97</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>98</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>99</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>101</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>102</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>103</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>104</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>105</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>106</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>107</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>108</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>110</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>111</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>112</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>113</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>114</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>115</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>116</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>117</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>118</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>119</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>120</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>121</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>122</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>123</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>124</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>125</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>126</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>127</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>128</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>129</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>130</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>131</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>132</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>133</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>134</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>135</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>136</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>137</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>138</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>139</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>140</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>141</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>142</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>143</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>144</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>145</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>146</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>147</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>148</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>149</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>150</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>151</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>152</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>153</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>154</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>155</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>156</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>157</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>158</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>159</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>160</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>161</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>162</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>163</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>164</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>165</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>166</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>167</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>168</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>169</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>170</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>171</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>172</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>173</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>174</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>175</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>176</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>177</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>178</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>179</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>180</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>181</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>182</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>183</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>184</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>185</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>186</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>187</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>188</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>189</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>190</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>191</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>192</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>193</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>194</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>195</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>196</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>197</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>198</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>199</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>200</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>201</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>202</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>203</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>204</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>205</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>206</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>207</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>208</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>209</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>210</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>211</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>212</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>213</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>214</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>215</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>216</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>217</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>218</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>219</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>220</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>221</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>222</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>223</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>224</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>225</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>226</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>227</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>228</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>229</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>230</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>231</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>232</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>233</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>234</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>235</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>236</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>237</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>238</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>239</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>240</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>241</v>
       </c>

--- a/data-raw/excel-spreadsheets/table_index.xlsx
+++ b/data-raw/excel-spreadsheets/table_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57DC905-2F0D-4279-824B-DD4A43515E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BBB37F-C617-4D1B-9378-04F7164B0742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97600937-3096-46D4-A200-AC41CD055E1E}"/>
   </bookViews>
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569376E0-8FA5-43EA-A466-707E9AF7BBBF}">
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-raw/excel-spreadsheets/table_index.xlsx
+++ b/data-raw/excel-spreadsheets/table_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BBB37F-C617-4D1B-9378-04F7164B0742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB909390-5675-4166-8EAD-2E7D797866CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97600937-3096-46D4-A200-AC41CD055E1E}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97600937-3096-46D4-A200-AC41CD055E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="1 to 241" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="496">
   <si>
     <t>Table</t>
   </si>
@@ -1514,6 +1514,15 @@
   </si>
   <si>
     <t>oci_132kv_tf_cond_select_div_b</t>
+  </si>
+  <si>
+    <t>34A</t>
+  </si>
+  <si>
+    <t>factor_trabajo_tab_generador</t>
+  </si>
+  <si>
+    <t>Tabla de Consulta Factor de Trabajo - Generadores</t>
   </si>
 </sst>
 </file>
@@ -1544,12 +1553,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1564,10 +1579,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1882,21 +1899,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569376E0-8FA5-43EA-A466-707E9AF7BBBF}">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="98.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +1930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1932,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1943,15 +1960,15 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">LEN(C3)</f>
+        <f t="shared" ref="D3:D67" si="0">LEN(C3)</f>
         <v>24</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">LEN(C3)-LEN(SUBSTITUTE(C3," ",""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E67" si="1">LEN(C3)-LEN(SUBSTITUTE(C3," ",""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1970,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1989,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2008,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2027,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2046,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2065,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2103,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2122,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2141,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2160,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2179,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2198,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2217,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2236,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2255,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2274,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2293,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2312,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2331,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2350,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2369,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2388,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2407,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2426,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2445,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2464,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2483,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2502,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2521,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2540,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2559,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2578,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2597,319 +2614,319 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" ref="D38" si="2">LEN(C38)</f>
+        <v>28</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" ref="E38" si="3">LEN(C38)-LEN(SUBSTITUTE(C38," ",""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>35</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>36</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>37</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>38</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>39</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>40</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>41</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>42</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>43</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>44</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>45</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>46</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>47</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>48</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>49</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
       <c r="E53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
@@ -2920,34 +2937,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
@@ -2958,53 +2975,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
@@ -3015,53 +3032,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
@@ -3072,3461 +3089,3480 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>64</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D130" si="2">LEN(C67)</f>
+      <c r="D68">
+        <f t="shared" ref="D68:D131" si="4">LEN(C68)</f>
         <v>29</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">LEN(C67)-LEN(SUBSTITUTE(C67," ",""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="E68">
+        <f t="shared" ref="E68:E131" si="5">LEN(C68)-LEN(SUBSTITUTE(C68," ",""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>65</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="2"/>
+      <c r="D69">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>66</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="2"/>
+      <c r="D70">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>67</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="2"/>
+      <c r="D71">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>68</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="2"/>
+      <c r="D72">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>69</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="2"/>
+      <c r="D73">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>70</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="2"/>
+      <c r="D74">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>71</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="2"/>
+      <c r="D75">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>72</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D75">
-        <f t="shared" si="2"/>
+      <c r="D76">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>73</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D76">
-        <f t="shared" si="2"/>
+      <c r="D77">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>74</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="2"/>
+      <c r="D78">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>75</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="2"/>
+      <c r="D79">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>76</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D79">
-        <f t="shared" si="2"/>
+      <c r="D80">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>77</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D80">
-        <f t="shared" si="2"/>
+      <c r="D81">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>78</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D81">
-        <f t="shared" si="2"/>
+      <c r="D82">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>79</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D82">
-        <f t="shared" si="2"/>
+      <c r="D83">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>80</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D83">
-        <f t="shared" si="2"/>
+      <c r="D84">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>81</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D84">
-        <f t="shared" si="2"/>
+      <c r="D85">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="E84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>82</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D85">
-        <f t="shared" si="2"/>
+      <c r="D86">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>83</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D86">
-        <f t="shared" si="2"/>
+      <c r="D87">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>84</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D87">
-        <f t="shared" si="2"/>
+      <c r="D88">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>85</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D88">
-        <f t="shared" si="2"/>
+      <c r="D89">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>86</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D89">
-        <f t="shared" si="2"/>
+      <c r="D90">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="E89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>87</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D90">
-        <f t="shared" si="2"/>
+      <c r="D91">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="E90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>88</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D91">
-        <f t="shared" si="2"/>
+      <c r="D92">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>89</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D92">
-        <f t="shared" si="2"/>
+      <c r="D93">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="E92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>90</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D93">
-        <f t="shared" si="2"/>
+      <c r="D94">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="E94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>91</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D94">
-        <f t="shared" si="2"/>
+      <c r="D95">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E94">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="E95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>92</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D95">
-        <f t="shared" si="2"/>
+      <c r="D96">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="E96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>93</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D96">
-        <f t="shared" si="2"/>
+      <c r="D97">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="E96">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="E97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>94</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D97">
-        <f t="shared" si="2"/>
+      <c r="D98">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="E98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>95</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D98">
-        <f t="shared" si="2"/>
+      <c r="D99">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E98">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="E99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>96</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D99">
-        <f t="shared" si="2"/>
+      <c r="D100">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="E99">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="E100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>97</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D100">
-        <f t="shared" si="2"/>
+      <c r="D101">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E100">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="E101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>98</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D101">
-        <f t="shared" si="2"/>
+      <c r="D102">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="E102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>99</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D102">
-        <f t="shared" si="2"/>
+      <c r="D103">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="E102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="E103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>100</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D103">
-        <f t="shared" si="2"/>
+      <c r="D104">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="E104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>101</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D104">
-        <f t="shared" si="2"/>
+      <c r="D105">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="E105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>102</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D105">
-        <f t="shared" si="2"/>
+      <c r="D106">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E105">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="E106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>103</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D106">
-        <f t="shared" si="2"/>
+      <c r="D107">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E106">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="E107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>104</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D107">
-        <f t="shared" si="2"/>
+      <c r="D108">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="E108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>105</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D108">
-        <f t="shared" si="2"/>
+      <c r="D109">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="E109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>106</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D109">
-        <f t="shared" si="2"/>
+      <c r="D110">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E109">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="E110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>107</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D110">
-        <f t="shared" si="2"/>
+      <c r="D111">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E110">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="E111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>108</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D111">
-        <f t="shared" si="2"/>
+      <c r="D112">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E111">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="E112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>109</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D112">
-        <f t="shared" si="2"/>
+      <c r="D113">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="E112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="E113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>110</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D113">
-        <f t="shared" si="2"/>
+      <c r="D114">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="E113">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="E114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>111</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D114">
-        <f t="shared" si="2"/>
+      <c r="D115">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="E115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>112</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>113</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>233</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
+        <v>113</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>114</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D117">
-        <f t="shared" si="2"/>
+      <c r="D118">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="E117">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="E118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>115</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D118">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>116</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="D119">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>117</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>118</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>119</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>120</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D123">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>121</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>122</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>123</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>124</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>125</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D128">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>126</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D129">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>127</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D130">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>128</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D131">
-        <f t="shared" ref="D131:D194" si="4">LEN(C131)</f>
-        <v>25</v>
-      </c>
-      <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">LEN(C131)-LEN(SUBSTITUTE(C131," ",""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>129</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D132">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="E132">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>130</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D133">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E133">
+      <c r="E119">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>131</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D134">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>116</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>117</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>118</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>119</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D123">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E134">
+      <c r="E123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>132</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D135">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>120</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D124">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="E135">
+      <c r="E124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>133</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D136">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>121</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D125">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E136">
+        <v>22</v>
+      </c>
+      <c r="E125">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>134</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D137">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>122</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D126">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="E137">
+        <v>23</v>
+      </c>
+      <c r="E126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>135</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D138">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>123</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>124</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>125</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D129">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E138">
+      <c r="E129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>136</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D139">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>126</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D130">
         <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="E139">
+        <v>26</v>
+      </c>
+      <c r="E130">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>137</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>138</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D141">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>139</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D142">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>140</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D143">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>141</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D144">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>142</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D145">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="E145">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>143</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D146">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>144</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D147">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>145</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D148">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>127</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D131">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="E148">
+      <c r="E131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>146</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D149">
-        <f t="shared" si="4"/>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>128</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D132">
+        <f t="shared" ref="D132:D195" si="6">LEN(C132)</f>
+        <v>25</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132:E195" si="7">LEN(C132)-LEN(SUBSTITUTE(C132," ",""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>129</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>130</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="E149">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>147</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D150">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>148</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D151">
-        <f t="shared" si="4"/>
+      <c r="E134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>131</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>132</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>133</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>134</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>135</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="E151">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>149</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D152">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="E152">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>150</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D153">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E153">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>151</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D154">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>152</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D155">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="E155">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>153</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D156">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="E156">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>154</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D157">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="E157">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>155</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D158">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="E158">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>156</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D159">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="E159">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>157</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D160">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="E160">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>158</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D161">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="E161">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>159</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D162">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E162">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>160</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D163">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="E163">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>161</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D164">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="E164">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>162</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D165">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="E165">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>163</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D166">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E166">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>164</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D167">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="E167">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>165</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D168">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="E168">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>166</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E169">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>167</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>168</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D171">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>169</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D172">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="E172">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>170</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D173">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="E173">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>171</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D174">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="E174">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>172</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D175">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="E175">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>173</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D176">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="E176">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>174</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D177">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="E177">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>175</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D178">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="E178">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>176</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E179">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>177</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D180">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="E180">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>178</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D181">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E181">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>179</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="E182">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>180</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E183">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>181</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D184">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E184">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>182</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D185">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E185">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>183</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D186">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E186">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>184</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D187">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="E187">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>185</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D188">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="E188">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>186</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D189">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E189">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>187</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D190">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="E190">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>188</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D191">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="E191">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>189</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D192">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E192">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>190</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D193">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E193">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>191</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D194">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="E194">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>192</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D195">
-        <f t="shared" ref="D195:D244" si="6">LEN(C195)</f>
-        <v>28</v>
-      </c>
-      <c r="E195">
-        <f t="shared" ref="E195:E244" si="7">LEN(C195)-LEN(SUBSTITUTE(C195," ",""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>193</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D196">
+      <c r="E139">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>136</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D140">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="E196">
+      <c r="E140">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>194</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D197">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>137</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>138</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D142">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="E197">
+      <c r="E142">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>195</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D198">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>139</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>140</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>141</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D145">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="E198">
+      <c r="E145">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>196</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D199">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>142</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>143</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>144</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>145</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>146</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D151">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="E199">
+      <c r="E151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>197</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D200">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>148</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>149</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>150</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>151</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>152</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>153</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>154</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>155</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>156</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>157</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>158</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>159</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>160</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>161</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>162</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D166">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="E200">
+      <c r="E166">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>198</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D201">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>163</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>164</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>165</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D169">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="E201">
+      <c r="E169">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>199</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D202">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>166</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>167</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>168</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>169</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>170</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>171</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D175">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="E202">
+      <c r="E175">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>200</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D203">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>172</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>173</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>174</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>175</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>176</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>177</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D181">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="E203">
+      <c r="E181">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>201</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D204">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>178</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D182">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="E204">
+      <c r="E182">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>202</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D205">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>179</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D183">
         <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="E205">
+        <v>30</v>
+      </c>
+      <c r="E183">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>203</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D206">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>180</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>181</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>182</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D186">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="E206">
+      <c r="E186">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>204</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D207">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="E207">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>205</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D208">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="E208">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>206</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D209">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="E209">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>207</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D210">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="E210">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>208</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D211">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>183</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D187">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="E211">
+      <c r="E187">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>209</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D212">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="E212">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>210</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D213">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="E213">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>211</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D214">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="E214">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>212</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D215">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="E215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>213</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D216">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="E216">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>214</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D217">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="E217">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>215</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D218">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="E218">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>216</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D219">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="E219">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>217</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D220">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>184</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D188">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="E220">
+      <c r="E188">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>218</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D221">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="E221">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>219</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D222">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="E222">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>220</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D223">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="E223">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>221</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D224">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="E224">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>222</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D225">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="E225">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>223</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D226">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>185</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D189">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="E226">
+      <c r="E189">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>224</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D227">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="E227">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>225</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D228">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>186</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D190">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="E228">
+      <c r="E190">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>226</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D229">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="E229">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>227</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D230">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="E230">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>228</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D231">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="E231">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>229</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D232">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="E232">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>230</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D233">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="E233">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>231</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D234">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="E234">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>232</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D235">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="E235">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>233</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D236">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>187</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D191">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="E236">
+      <c r="E191">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>234</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D237">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>188</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D192">
         <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="E237">
+        <v>27</v>
+      </c>
+      <c r="E192">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>235</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D238">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="E238">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>236</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D239">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="E239">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>237</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D240">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="E240">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>238</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D241">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="E241">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>239</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D242">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="E242">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>240</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D243">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>189</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D193">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
+      <c r="E193">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>190</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>191</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>192</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D196">
+        <f t="shared" ref="D196:D245" si="8">LEN(C196)</f>
+        <v>28</v>
+      </c>
+      <c r="E196">
+        <f t="shared" ref="E196:E245" si="9">LEN(C196)-LEN(SUBSTITUTE(C196," ",""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>193</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>194</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>195</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>196</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>197</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>198</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>199</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>200</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>201</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>202</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>203</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>204</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>205</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>206</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>207</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>208</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>209</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>210</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>211</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>212</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>213</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>214</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>215</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>216</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>217</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>218</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>219</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>220</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>221</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>222</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>223</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>224</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>225</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>226</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>227</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>228</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>229</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>230</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>231</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>232</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>233</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>234</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>235</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>236</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>237</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>238</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>239</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
       <c r="E243">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
+        <v>240</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245">
         <v>241</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C245" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D244">
-        <f t="shared" si="6"/>
+      <c r="D245">
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="E244">
-        <f t="shared" si="7"/>
+      <c r="E245">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>

--- a/data-raw/excel-spreadsheets/table_index.xlsx
+++ b/data-raw/excel-spreadsheets/table_index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB909390-5675-4166-8EAD-2E7D797866CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C006FD-3C8B-4435-AB2A-CF576B41CC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97600937-3096-46D4-A200-AC41CD055E1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97600937-3096-46D4-A200-AC41CD055E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="1 to 241" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="568">
   <si>
     <t>Table</t>
   </si>
@@ -1523,6 +1523,222 @@
   </si>
   <si>
     <t>Tabla de Consulta Factor de Trabajo - Generadores</t>
+  </si>
+  <si>
+    <t>143A</t>
+  </si>
+  <si>
+    <t>143B</t>
+  </si>
+  <si>
+    <t>143C</t>
+  </si>
+  <si>
+    <t>143D</t>
+  </si>
+  <si>
+    <t>143E</t>
+  </si>
+  <si>
+    <t>143F</t>
+  </si>
+  <si>
+    <t>143G</t>
+  </si>
+  <si>
+    <t>143H</t>
+  </si>
+  <si>
+    <t>143I</t>
+  </si>
+  <si>
+    <t>143J</t>
+  </si>
+  <si>
+    <t>143K</t>
+  </si>
+  <si>
+    <t>143L</t>
+  </si>
+  <si>
+    <t>143M</t>
+  </si>
+  <si>
+    <t>143N</t>
+  </si>
+  <si>
+    <t>202A</t>
+  </si>
+  <si>
+    <t>202B</t>
+  </si>
+  <si>
+    <t>202C</t>
+  </si>
+  <si>
+    <t>202D</t>
+  </si>
+  <si>
+    <t>202E</t>
+  </si>
+  <si>
+    <t>202F</t>
+  </si>
+  <si>
+    <t>202G</t>
+  </si>
+  <si>
+    <t>202H</t>
+  </si>
+  <si>
+    <t>202I</t>
+  </si>
+  <si>
+    <t>202J</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Cubierta de Acero del Motor</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Rodamientos del Motor</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Sistema de Combustible del Motor</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Sistema de Enfriamiento del Motor</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Sistema de Lubricación del Motor</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Sistema de Inducción de Aire del Motor</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Turbocompresores del Motor</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Culatas de Cilíndros del Motor</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Filtro del Motor</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Cubierta del Alternador</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Aislamiento del Alternador</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Cables y Caja de Terminales del Alternador</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Rotor del Alternador</t>
+  </si>
+  <si>
+    <t>Observed Condition Input - HV Generador Diésel: Estator del Alternador</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_cubierta_motor</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_culatas_motor</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_cubierta_altern</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_combust_motor</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_rodamien_motor</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_enfriamie_motor</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_lubricac_motor</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_aire_motor</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_turbocomp_motor</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_filtro_motor</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_aislamie_altern</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_cables_altern</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_rotor_altern</t>
+  </si>
+  <si>
+    <t>oci_hv_gen_die_estator_altern</t>
+  </si>
+  <si>
+    <t>Measured Condition Input - HV Generador Diésel: Rendimiento del Motor</t>
+  </si>
+  <si>
+    <t>Measured Condition Input - HV Generador Diésel: Velocidad en RPM del Motor</t>
+  </si>
+  <si>
+    <t>Measured Condition Input - HV Generador Diésel: Consumo de Combustible del Motor</t>
+  </si>
+  <si>
+    <t>Measured Condition Input - HV Generador Diésel: Operación del Freno del Motor</t>
+  </si>
+  <si>
+    <t>Measured Condition Input - HV Generador Diésel: Resistencia del Aislamiento del Alternador</t>
+  </si>
+  <si>
+    <t>Measured Condition Input - HV Generador Diésel: Descargas Parciales en el Alternador</t>
+  </si>
+  <si>
+    <t>Measured Condition Input - HV Generador Diésel: Secuencia de Fases en el Alternador</t>
+  </si>
+  <si>
+    <t>Measured Condition Input - HV Generador Diésel: Vibraciones en el Alternador</t>
+  </si>
+  <si>
+    <t>Measured Condition Input - HV Generador Diésel: Pérdidas en el Alternador</t>
+  </si>
+  <si>
+    <t>Measured Condition Input - HV Generador Diésel: Tempratura del Arrollamiento del Alternador</t>
+  </si>
+  <si>
+    <t>mci_hv_gen_die_rendimien_motor</t>
+  </si>
+  <si>
+    <t>mci_hv_gen_die_velocidad_motor</t>
+  </si>
+  <si>
+    <t>mci_hv_gen_die_consumo_motor</t>
+  </si>
+  <si>
+    <t>mci_hv_gen_die_freno_motor</t>
+  </si>
+  <si>
+    <t>mci_hv_gen_die_aislamie_altern</t>
+  </si>
+  <si>
+    <t>mci_hv_gen_die_descarga_altern</t>
+  </si>
+  <si>
+    <t>mci_hv_gen_die_secuen_altern</t>
+  </si>
+  <si>
+    <t>mci_hv_gen_die_vibrac_altern</t>
+  </si>
+  <si>
+    <t>mci_hv_gen_die_perdidas_altern</t>
+  </si>
+  <si>
+    <t>mci_hv_gen_die_temperat_altern</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1563,6 +1779,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,12 +1801,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1899,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569376E0-8FA5-43EA-A466-707E9AF7BBBF}">
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1931,7 +2164,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1950,7 +2183,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1969,7 +2202,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1988,7 +2221,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2007,7 +2240,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2026,7 +2259,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2045,7 +2278,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2064,7 +2297,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2083,7 +2316,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -2102,7 +2335,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -2121,7 +2354,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -2140,7 +2373,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -2159,7 +2392,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -2178,7 +2411,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -2197,7 +2430,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -2216,7 +2449,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -2235,7 +2468,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -2254,7 +2487,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -2273,7 +2506,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -2292,7 +2525,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -2311,7 +2544,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2330,7 +2563,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2349,7 +2582,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2368,7 +2601,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2387,7 +2620,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2406,7 +2639,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2425,7 +2658,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2444,7 +2677,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2463,7 +2696,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2482,7 +2715,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2501,7 +2734,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2520,7 +2753,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2539,7 +2772,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2558,7 +2791,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="7">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2577,7 +2810,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="7">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2596,7 +2829,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="7">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2615,7 +2848,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="8" t="s">
         <v>493</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2634,7 +2867,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="7">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2653,7 +2886,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="7">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2672,7 +2905,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="7">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2691,7 +2924,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="7">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2710,7 +2943,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="7">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2729,7 +2962,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="7">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2748,7 +2981,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="7">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2767,7 +3000,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="7">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2786,7 +3019,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="7">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2805,7 +3038,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="7">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2824,7 +3057,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="7">
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2843,7 +3076,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="7">
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2862,7 +3095,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="7">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2881,7 +3114,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="7">
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2900,7 +3133,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="7">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2919,7 +3152,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="7">
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2938,7 +3171,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="7">
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2957,7 +3190,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="7">
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2976,7 +3209,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="7">
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2995,7 +3228,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="7">
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3014,7 +3247,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="7">
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3033,7 +3266,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="7">
         <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3052,7 +3285,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="7">
         <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3071,7 +3304,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="7">
         <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3090,7 +3323,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="7">
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3109,7 +3342,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="7">
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3128,7 +3361,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="7">
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3147,7 +3380,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="7">
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3166,7 +3399,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="7">
         <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3185,7 +3418,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="7">
         <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3204,7 +3437,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="7">
         <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3223,7 +3456,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="7">
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3242,7 +3475,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="7">
         <v>67</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3261,7 +3494,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="7">
         <v>68</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3280,7 +3513,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="7">
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3299,7 +3532,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="7">
         <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3318,7 +3551,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="7">
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3337,7 +3570,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="7">
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3356,7 +3589,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="7">
         <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3375,7 +3608,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="7">
         <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3394,7 +3627,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="7">
         <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3413,7 +3646,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="7">
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3432,7 +3665,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="7">
         <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3451,7 +3684,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="7">
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3470,7 +3703,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="7">
         <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3489,7 +3722,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="7">
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3508,7 +3741,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="7">
         <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3527,7 +3760,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="7">
         <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3546,7 +3779,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="7">
         <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3565,7 +3798,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="A88" s="7">
         <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3584,7 +3817,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="A89" s="7">
         <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3603,7 +3836,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" s="7">
         <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3622,7 +3855,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" s="7">
         <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3641,7 +3874,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="7">
         <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3660,7 +3893,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="A93" s="7">
         <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3679,7 +3912,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="7">
         <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3698,7 +3931,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="A95" s="7">
         <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3717,7 +3950,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="A96" s="7">
         <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3736,7 +3969,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="A97" s="7">
         <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3755,7 +3988,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="A98" s="7">
         <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3774,7 +4007,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="A99" s="7">
         <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3793,7 +4026,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="A100" s="7">
         <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3812,7 +4045,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="A101" s="7">
         <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3831,7 +4064,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="A102" s="7">
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3850,7 +4083,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="A103" s="7">
         <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -3869,7 +4102,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="A104" s="7">
         <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -3888,7 +4121,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="A105" s="7">
         <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -3907,7 +4140,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="A106" s="7">
         <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -3926,7 +4159,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="A107" s="7">
         <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3945,7 +4178,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="A108" s="7">
         <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3964,7 +4197,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="A109" s="7">
         <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -3983,7 +4216,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="A110" s="7">
         <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -4002,7 +4235,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="A111" s="7">
         <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -4021,7 +4254,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="A112" s="7">
         <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -4040,7 +4273,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="A113" s="7">
         <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -4059,7 +4292,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="A114" s="7">
         <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -4078,7 +4311,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="A115" s="7">
         <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -4097,7 +4330,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="A116" s="7">
         <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -4116,7 +4349,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="A117" s="7">
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -4135,7 +4368,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="A118" s="7">
         <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -4154,7 +4387,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="A119" s="7">
         <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -4173,7 +4406,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="A120" s="7">
         <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -4192,7 +4425,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="A121" s="7">
         <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -4211,7 +4444,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="A122" s="7">
         <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -4230,7 +4463,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="A123" s="7">
         <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -4249,7 +4482,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="A124" s="7">
         <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -4268,7 +4501,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="A125" s="7">
         <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -4287,7 +4520,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="A126" s="7">
         <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -4306,7 +4539,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="A127" s="7">
         <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -4325,7 +4558,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="A128" s="7">
         <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -4344,7 +4577,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="A129" s="7">
         <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -4363,7 +4596,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="A130" s="7">
         <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -4382,7 +4615,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="A131" s="7">
         <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -4401,7 +4634,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="A132" s="7">
         <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -4411,16 +4644,16 @@
         <v>264</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D195" si="6">LEN(C132)</f>
+        <f t="shared" ref="D132:D209" si="6">LEN(C132)</f>
         <v>25</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E195" si="7">LEN(C132)-LEN(SUBSTITUTE(C132," ",""))</f>
+        <f t="shared" ref="E132:E209" si="7">LEN(C132)-LEN(SUBSTITUTE(C132," ",""))</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="A133" s="7">
         <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -4439,7 +4672,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="A134" s="7">
         <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -4458,7 +4691,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="A135" s="7">
         <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -4477,7 +4710,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="A136" s="7">
         <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -4496,7 +4729,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="A137" s="7">
         <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -4515,7 +4748,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="A138" s="7">
         <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -4534,7 +4767,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="A139" s="7">
         <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -4553,7 +4786,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="A140" s="7">
         <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -4572,7 +4805,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="A141" s="7">
         <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -4591,7 +4824,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="A142" s="7">
         <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -4610,7 +4843,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="A143" s="7">
         <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -4629,7 +4862,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="A144" s="7">
         <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -4648,7 +4881,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="A145" s="7">
         <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -4667,7 +4900,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="A146" s="7">
         <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -4686,7 +4919,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="A147" s="7">
         <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -4705,470 +4938,470 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="A148" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D148" s="5">
+        <f t="shared" ref="D148:D161" si="8">LEN(C148)</f>
+        <v>29</v>
+      </c>
+      <c r="E148" s="5">
+        <f t="shared" ref="E148:E161" si="9">LEN(C148)-LEN(SUBSTITUTE(C148," ",""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D149" s="5">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E149" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D150" s="5">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E150" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D151" s="5">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E151" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D152" s="5">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E152" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D153" s="5">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E153" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D154" s="5">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E154" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D155" s="5">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E155" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D156" s="5">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E156" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D157" s="5">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E157" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D158" s="5">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E158" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D159" s="5">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E159" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D160" s="5">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E160" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D161" s="5">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E161" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="7">
         <v>144</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D148">
+      <c r="D162">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="E148">
+      <c r="E162">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="7">
         <v>145</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D149">
+      <c r="D163">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E149">
+      <c r="E163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="7">
         <v>146</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D150">
+      <c r="D164">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="E150">
+      <c r="E164">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="7">
         <v>147</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D151">
+      <c r="D165">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="E151">
+      <c r="E165">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="7">
         <v>148</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D152">
+      <c r="D166">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="E152">
+      <c r="E166">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="7">
         <v>149</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D153">
+      <c r="D167">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="E153">
+      <c r="E167">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="7">
         <v>150</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D154">
+      <c r="D168">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="E154">
+      <c r="E168">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="7">
         <v>151</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D155">
+      <c r="D169">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="E155">
+      <c r="E169">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="7">
         <v>152</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D156">
+      <c r="D170">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="E156">
+      <c r="E170">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="7">
         <v>153</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D157">
+      <c r="D171">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="E157">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>154</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D158">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="E158">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>155</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D159">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="E159">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>156</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D160">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="E160">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>157</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D161">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="E161">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>158</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D162">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="E162">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>159</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D163">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="E163">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>160</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D164">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="E164">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>161</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D165">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="E165">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>162</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D166">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="E166">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>163</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D167">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="E167">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>164</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D168">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="E168">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>165</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="E169">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>166</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>167</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D171">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
       <c r="E171">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>168</v>
+      <c r="A172" s="7">
+        <v>154</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="D172">
         <f t="shared" si="6"/>
@@ -5180,18 +5413,18 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>169</v>
+      <c r="A173" s="7">
+        <v>155</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="D173">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E173">
         <f t="shared" si="7"/>
@@ -5199,18 +5432,18 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>170</v>
+      <c r="A174" s="7">
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="D174">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E174">
         <f t="shared" si="7"/>
@@ -5218,14 +5451,14 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>171</v>
+      <c r="A175" s="7">
+        <v>157</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="D175">
         <f t="shared" si="6"/>
@@ -5237,18 +5470,18 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>172</v>
+      <c r="A176" s="7">
+        <v>158</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="D176">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E176">
         <f t="shared" si="7"/>
@@ -5256,18 +5489,18 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>173</v>
+      <c r="A177" s="7">
+        <v>159</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="D177">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E177">
         <f t="shared" si="7"/>
@@ -5275,18 +5508,18 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>174</v>
+      <c r="A178" s="7">
+        <v>160</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="D178">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E178">
         <f t="shared" si="7"/>
@@ -5294,18 +5527,18 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>175</v>
+      <c r="A179" s="7">
+        <v>161</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="D179">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E179">
         <f t="shared" si="7"/>
@@ -5313,18 +5546,18 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>176</v>
+      <c r="A180" s="7">
+        <v>162</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="D180">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E180">
         <f t="shared" si="7"/>
@@ -5332,18 +5565,18 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>177</v>
+      <c r="A181" s="7">
+        <v>163</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="D181">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E181">
         <f t="shared" si="7"/>
@@ -5351,18 +5584,18 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>178</v>
+      <c r="A182" s="7">
+        <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="D182">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E182">
         <f t="shared" si="7"/>
@@ -5370,14 +5603,14 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>179</v>
+      <c r="A183" s="7">
+        <v>165</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="D183">
         <f t="shared" si="6"/>
@@ -5389,18 +5622,18 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>180</v>
+      <c r="A184" s="7">
+        <v>166</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="D184">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E184">
         <f t="shared" si="7"/>
@@ -5408,18 +5641,18 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>181</v>
+      <c r="A185" s="7">
+        <v>167</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="D185">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E185">
         <f t="shared" si="7"/>
@@ -5427,18 +5660,18 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>182</v>
+      <c r="A186" s="7">
+        <v>168</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="D186">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E186">
         <f t="shared" si="7"/>
@@ -5446,18 +5679,18 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>183</v>
+      <c r="A187" s="7">
+        <v>169</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="D187">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E187">
         <f t="shared" si="7"/>
@@ -5465,18 +5698,18 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>184</v>
+      <c r="A188" s="7">
+        <v>170</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="D188">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E188">
         <f t="shared" si="7"/>
@@ -5484,18 +5717,18 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>185</v>
+      <c r="A189" s="7">
+        <v>171</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="D189">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E189">
         <f t="shared" si="7"/>
@@ -5503,18 +5736,18 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>186</v>
+      <c r="A190" s="7">
+        <v>172</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="D190">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E190">
         <f t="shared" si="7"/>
@@ -5522,14 +5755,14 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>187</v>
+      <c r="A191" s="7">
+        <v>173</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="D191">
         <f t="shared" si="6"/>
@@ -5541,18 +5774,18 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>188</v>
+      <c r="A192" s="7">
+        <v>174</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="D192">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E192">
         <f t="shared" si="7"/>
@@ -5560,18 +5793,18 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>189</v>
+      <c r="A193" s="7">
+        <v>175</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="D193">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E193">
         <f t="shared" si="7"/>
@@ -5579,14 +5812,14 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>190</v>
+      <c r="A194" s="7">
+        <v>176</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="D194">
         <f t="shared" si="6"/>
@@ -5598,18 +5831,18 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>191</v>
+      <c r="A195" s="7">
+        <v>177</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="D195">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E195">
         <f t="shared" si="7"/>
@@ -5617,952 +5850,1408 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196">
+      <c r="A196" s="7">
+        <v>178</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="7">
+        <v>179</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="7">
+        <v>180</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="7">
+        <v>181</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="7">
+        <v>182</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="7">
+        <v>183</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="7">
+        <v>184</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="7">
+        <v>185</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="7">
+        <v>186</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="7">
+        <v>187</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="7">
+        <v>188</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="7">
+        <v>189</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="7">
+        <v>190</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="7">
+        <v>191</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="7">
         <v>192</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D196">
-        <f t="shared" ref="D196:D245" si="8">LEN(C196)</f>
+      <c r="D210">
+        <f t="shared" ref="D210:D269" si="10">LEN(C210)</f>
         <v>28</v>
       </c>
-      <c r="E196">
-        <f t="shared" ref="E196:E245" si="9">LEN(C196)-LEN(SUBSTITUTE(C196," ",""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197">
+      <c r="E210">
+        <f t="shared" ref="E210:E269" si="11">LEN(C210)-LEN(SUBSTITUTE(C210," ",""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="7">
         <v>193</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D197">
-        <f t="shared" si="8"/>
+      <c r="D211">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E197">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198">
+      <c r="E211">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="7">
         <v>194</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C212" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D198">
-        <f t="shared" si="8"/>
+      <c r="D212">
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="E198">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199">
+      <c r="E212">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="7">
         <v>195</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C213" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D199">
-        <f t="shared" si="8"/>
+      <c r="D213">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="E199">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200">
+      <c r="E213">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="7">
         <v>196</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D200">
-        <f t="shared" si="8"/>
+      <c r="D214">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E200">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201">
+      <c r="E214">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="7">
         <v>197</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D201">
-        <f t="shared" si="8"/>
+      <c r="D215">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="E201">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202">
+      <c r="E215">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="7">
         <v>198</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C216" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D202">
-        <f t="shared" si="8"/>
+      <c r="D216">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="E202">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203">
+      <c r="E216">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="7">
         <v>199</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C217" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D203">
-        <f t="shared" si="8"/>
+      <c r="D217">
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="E203">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204">
+      <c r="E217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="7">
         <v>200</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D204">
-        <f t="shared" si="8"/>
+      <c r="D218">
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="E204">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205">
+      <c r="E218">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="7">
         <v>201</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D205">
-        <f t="shared" si="8"/>
+      <c r="D219">
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="E205">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206">
+      <c r="E219">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="7">
         <v>202</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D206">
-        <f t="shared" si="8"/>
+      <c r="D220">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E206">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207">
+      <c r="E220">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D221" s="5">
+        <f t="shared" ref="D221:D230" si="12">LEN(C221)</f>
+        <v>30</v>
+      </c>
+      <c r="E221" s="5">
+        <f t="shared" ref="E221:E230" si="13">LEN(C221)-LEN(SUBSTITUTE(C221," ",""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D222" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E222" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D223" s="5">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="E223" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D224" s="5">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="E224" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D225" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E225" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D226" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E226" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D227" s="5">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="E227" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D228" s="5">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="E228" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D229" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E229" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D230" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E230" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="7">
         <v>203</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C231" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D207">
-        <f t="shared" si="8"/>
+      <c r="D231">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="E207">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208">
+      <c r="E231">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="7">
         <v>204</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C232" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D208">
-        <f t="shared" si="8"/>
+      <c r="D232">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="E208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209">
+      <c r="E232">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="7">
         <v>205</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B233" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C233" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D209">
-        <f t="shared" si="8"/>
+      <c r="D233">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E209">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210">
+      <c r="E233">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="7">
         <v>206</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C234" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D210">
-        <f t="shared" si="8"/>
+      <c r="D234">
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="E210">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211">
+      <c r="E234">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="7">
         <v>207</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B235" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C235" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D211">
-        <f t="shared" si="8"/>
+      <c r="D235">
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="E211">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212">
+      <c r="E235">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="7">
         <v>208</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D212">
-        <f t="shared" si="8"/>
+      <c r="D236">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="E212">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213">
+      <c r="E236">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="7">
         <v>209</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B237" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D213">
-        <f t="shared" si="8"/>
+      <c r="D237">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="E213">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214">
+      <c r="E237">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="7">
         <v>210</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D214">
-        <f t="shared" si="8"/>
+      <c r="D238">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="E214">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215">
+      <c r="E238">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="7">
         <v>211</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D215">
-        <f t="shared" si="8"/>
+      <c r="D239">
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="E215">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216">
+      <c r="E239">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="7">
         <v>212</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C240" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D216">
-        <f t="shared" si="8"/>
+      <c r="D240">
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="E216">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217">
+      <c r="E240">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="7">
         <v>213</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D217">
-        <f t="shared" si="8"/>
+      <c r="D241">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="E217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218">
+      <c r="E241">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="7">
         <v>214</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C242" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D218">
-        <f t="shared" si="8"/>
+      <c r="D242">
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="E218">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219">
+      <c r="E242">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="7">
         <v>215</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D219">
-        <f t="shared" si="8"/>
+      <c r="D243">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="E219">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220">
+      <c r="E243">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="7">
         <v>216</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C244" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D220">
-        <f t="shared" si="8"/>
+      <c r="D244">
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="E220">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221">
+      <c r="E244">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="7">
         <v>217</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C245" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D221">
-        <f t="shared" si="8"/>
+      <c r="D245">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="E221">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222">
+      <c r="E245">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="7">
         <v>218</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D222">
-        <f t="shared" si="8"/>
+      <c r="D246">
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="E222">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223">
+      <c r="E246">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="7">
         <v>219</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D223">
-        <f t="shared" si="8"/>
+      <c r="D247">
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
-      <c r="E223">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224">
+      <c r="E247">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="7">
         <v>220</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B248" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D224">
-        <f t="shared" si="8"/>
+      <c r="D248">
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="E224">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225">
+      <c r="E248">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="7">
         <v>221</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B249" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C249" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D225">
-        <f t="shared" si="8"/>
+      <c r="D249">
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="E225">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226">
+      <c r="E249">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="7">
         <v>222</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B250" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D226">
-        <f t="shared" si="8"/>
+      <c r="D250">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="E226">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227">
+      <c r="E250">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="7">
         <v>223</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B251" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D227">
-        <f t="shared" si="8"/>
+      <c r="D251">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="E227">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228">
+      <c r="E251">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="7">
         <v>224</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B252" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C252" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D228">
-        <f t="shared" si="8"/>
+      <c r="D252">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E228">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229">
+      <c r="E252">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="7">
         <v>225</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B253" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D229">
-        <f t="shared" si="8"/>
+      <c r="D253">
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="E229">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230">
+      <c r="E253">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="7">
         <v>226</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B254" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C254" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D230">
-        <f t="shared" si="8"/>
+      <c r="D254">
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="E230">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231">
+      <c r="E254">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="7">
         <v>227</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B255" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D231">
-        <f t="shared" si="8"/>
+      <c r="D255">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E231">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232">
+      <c r="E255">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="7">
         <v>228</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B256" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D232">
-        <f t="shared" si="8"/>
+      <c r="D256">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="E232">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233">
+      <c r="E256">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="7">
         <v>229</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B257" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C257" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D233">
-        <f t="shared" si="8"/>
+      <c r="D257">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="E233">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234">
+      <c r="E257">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="7">
         <v>230</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B258" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C258" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D234">
-        <f t="shared" si="8"/>
+      <c r="D258">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="E234">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235">
+      <c r="E258">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="7">
         <v>231</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B259" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C259" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D235">
-        <f t="shared" si="8"/>
+      <c r="D259">
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="E235">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236">
+      <c r="E259">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="7">
         <v>232</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C260" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D236">
-        <f t="shared" si="8"/>
+      <c r="D260">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E236">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237">
+      <c r="E260">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="7">
         <v>233</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B261" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C261" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D237">
-        <f t="shared" si="8"/>
+      <c r="D261">
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="E237">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238">
+      <c r="E261">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="7">
         <v>234</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B262" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C262" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D238">
-        <f t="shared" si="8"/>
+      <c r="D262">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E238">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239">
+      <c r="E262">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="7">
         <v>235</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B263" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C263" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D239">
-        <f t="shared" si="8"/>
+      <c r="D263">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E239">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240">
+      <c r="E263">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="7">
         <v>236</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B264" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C264" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D240">
-        <f t="shared" si="8"/>
+      <c r="D264">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E240">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241">
+      <c r="E264">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="7">
         <v>237</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B265" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C265" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D241">
-        <f t="shared" si="8"/>
+      <c r="D265">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E241">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242">
+      <c r="E265">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="7">
         <v>238</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B266" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C266" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D242">
-        <f t="shared" si="8"/>
+      <c r="D266">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="E242">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243">
+      <c r="E266">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="7">
         <v>239</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B267" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C267" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D243">
-        <f t="shared" si="8"/>
+      <c r="D267">
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
-      <c r="E243">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244">
+      <c r="E267">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="7">
         <v>240</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B268" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D244">
-        <f t="shared" si="8"/>
+      <c r="D268">
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="E244">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245">
+      <c r="E268">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="7">
         <v>241</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B269" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C269" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D245">
-        <f t="shared" si="8"/>
+      <c r="D269">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E245">
-        <f t="shared" si="9"/>
+      <c r="E269">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>

--- a/data-raw/excel-spreadsheets/table_index.xlsx
+++ b/data-raw/excel-spreadsheets/table_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C006FD-3C8B-4435-AB2A-CF576B41CC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72136B1A-798F-4C16-91D1-D8BB5BA7F24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97600937-3096-46D4-A200-AC41CD055E1E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="571">
   <si>
     <t>Table</t>
   </si>
@@ -1739,6 +1739,15 @@
   </si>
   <si>
     <t>mci_hv_gen_die_temperat_altern</t>
+  </si>
+  <si>
+    <t>225A</t>
+  </si>
+  <si>
+    <t>Factor de consecuencia de seguridad - Generadores</t>
+  </si>
+  <si>
+    <t>factor_consec_seg_generador</t>
   </si>
 </sst>
 </file>
@@ -2132,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569376E0-8FA5-43EA-A466-707E9AF7BBBF}">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6126,11 +6135,11 @@
         <v>392</v>
       </c>
       <c r="D210">
-        <f t="shared" ref="D210:D269" si="10">LEN(C210)</f>
+        <f t="shared" ref="D210:D270" si="10">LEN(C210)</f>
         <v>28</v>
       </c>
       <c r="E210">
-        <f t="shared" ref="E210:E269" si="11">LEN(C210)-LEN(SUBSTITUTE(C210," ",""))</f>
+        <f t="shared" ref="E210:E270" si="11">LEN(C210)-LEN(SUBSTITUTE(C210," ",""))</f>
         <v>0</v>
       </c>
     </row>
@@ -6952,57 +6961,57 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="7">
+      <c r="A254" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D254" s="5">
+        <f t="shared" ref="D254" si="14">LEN(C254)</f>
+        <v>27</v>
+      </c>
+      <c r="E254" s="5">
+        <f t="shared" ref="E254" si="15">LEN(C254)-LEN(SUBSTITUTE(C254," ",""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="7">
         <v>226</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B255" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D254">
+      <c r="D255">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="E254">
+      <c r="E255">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="7">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="7">
         <v>227</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B256" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D255">
+      <c r="D256">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="E255">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="7">
-        <v>228</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D256">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
       <c r="E256">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -7010,13 +7019,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D257">
         <f t="shared" si="10"/>
@@ -7029,13 +7038,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D258">
         <f t="shared" si="10"/>
@@ -7048,17 +7057,17 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D259">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E259">
         <f t="shared" si="11"/>
@@ -7067,17 +7076,17 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D260">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E260">
         <f t="shared" si="11"/>
@@ -7086,17 +7095,17 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D261">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E261">
         <f t="shared" si="11"/>
@@ -7105,17 +7114,17 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D262">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E262">
         <f t="shared" si="11"/>
@@ -7124,13 +7133,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D263">
         <f t="shared" si="10"/>
@@ -7143,13 +7152,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D264">
         <f t="shared" si="10"/>
@@ -7162,13 +7171,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D265">
         <f t="shared" si="10"/>
@@ -7181,17 +7190,17 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D266">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E266">
         <f t="shared" si="11"/>
@@ -7200,17 +7209,17 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D267">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E267">
         <f t="shared" si="11"/>
@@ -7219,17 +7228,17 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D268">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E268">
         <f t="shared" si="11"/>
@@ -7238,24 +7247,44 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D269">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E269">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="7">
+        <v>241</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>